--- a/AzentioAutomationFramework_FMS2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="806" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="806" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="378">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -836,9 +836,6 @@
     <t>Need to Execute</t>
   </si>
   <si>
-    <t>Feature Name</t>
-  </si>
-  <si>
     <t>DS_AT_RF_157</t>
   </si>
   <si>
@@ -1101,6 +1098,78 @@
   </si>
   <si>
     <t>DS_AT_CM_006</t>
+  </si>
+  <si>
+    <t>AT_AR_006</t>
+  </si>
+  <si>
+    <t>DS_AT_AR_006</t>
+  </si>
+  <si>
+    <t>Document Validation input value</t>
+  </si>
+  <si>
+    <t>AT_DDR_001</t>
+  </si>
+  <si>
+    <t>DS_AT_DDR_001</t>
+  </si>
+  <si>
+    <t>Revolving OneOff Value</t>
+  </si>
+  <si>
+    <t>Revolving</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Field Label</t>
+  </si>
+  <si>
+    <t>Market FC Value</t>
+  </si>
+  <si>
+    <t>CIFID</t>
+  </si>
+  <si>
+    <t>AT_FAID_011</t>
+  </si>
+  <si>
+    <t>AT_FAID_012</t>
+  </si>
+  <si>
+    <t>AT_FAM_009</t>
+  </si>
+  <si>
+    <t>AT_FAM_010</t>
+  </si>
+  <si>
+    <t>AT_FAM_011</t>
+  </si>
+  <si>
+    <t>DS_AT_FAID_011</t>
+  </si>
+  <si>
+    <t>DS_AT_FAID_012</t>
+  </si>
+  <si>
+    <t>DS_AT_FAM_009</t>
+  </si>
+  <si>
+    <t>DS_AT_FAM_010</t>
+  </si>
+  <si>
+    <t>DS_AT_FAM_011</t>
+  </si>
+  <si>
+    <t>Existing Facility No</t>
+  </si>
+  <si>
+    <t>UpdatedTotalLimit</t>
+  </si>
+  <si>
+    <t>Modify Request</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1257,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,12 +1333,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,7 +1467,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1580,9 +1643,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1642,6 +1702,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1981,7 +2050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1999,7 +2068,7 @@
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="12.7109375" style="105" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="12.7109375" style="102" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="13.28515625" style="3" customWidth="1" collapsed="1"/>
@@ -2046,10 +2115,10 @@
       <c r="A2" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="88">
         <v>843959</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="89" t="s">
         <v>181</v>
       </c>
       <c r="D2" s="58" t="s">
@@ -2072,10 +2141,10 @@
       <c r="A3" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="88">
         <v>862019</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="89" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="58" t="s">
@@ -2098,10 +2167,10 @@
       <c r="A4" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="91">
+      <c r="B4" s="88">
         <v>285050</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="65" t="s">
         <v>169</v>
       </c>
@@ -2120,10 +2189,10 @@
       <c r="A5" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="88">
         <v>296063</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="89" t="s">
         <v>183</v>
       </c>
       <c r="D5" s="58" t="s">
@@ -2144,8 +2213,8 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="57"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
       <c r="F6" s="58"/>
@@ -2158,10 +2227,10 @@
       <c r="A7" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="88">
         <v>294466</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="91" t="s">
         <v>170</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -2184,10 +2253,10 @@
       <c r="A8" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="88">
         <v>299883</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="91" t="s">
         <v>171</v>
       </c>
       <c r="D8" s="58" t="s">
@@ -2212,10 +2281,10 @@
       <c r="A9" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="92">
         <v>305703</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="91" t="s">
         <v>172</v>
       </c>
       <c r="D9" s="58" t="s">
@@ -2242,10 +2311,10 @@
       <c r="A10" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="95">
+      <c r="B10" s="92">
         <v>305607</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="91" t="s">
         <v>173</v>
       </c>
       <c r="D10" s="58" t="s">
@@ -2270,10 +2339,10 @@
       <c r="A11" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="95">
+      <c r="B11" s="92">
         <v>534131</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="89" t="s">
         <v>174</v>
       </c>
       <c r="D11" s="65" t="s">
@@ -2296,10 +2365,10 @@
       <c r="A12" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="92">
         <v>534148</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="89" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="65" t="s">
@@ -2322,10 +2391,10 @@
       <c r="A13" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="88">
         <v>834966</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="91" t="s">
         <v>176</v>
       </c>
       <c r="D13" s="67" t="s">
@@ -2350,10 +2419,10 @@
       <c r="A14" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="93">
         <v>834967</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="94" t="s">
         <v>177</v>
       </c>
       <c r="D14" s="67" t="s">
@@ -2376,8 +2445,8 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="57"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="58"/>
@@ -2390,10 +2459,10 @@
       <c r="A16" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="95">
         <v>665923</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="96" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="58" t="s">
@@ -2418,10 +2487,10 @@
       <c r="A17" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="98">
+      <c r="B17" s="95">
         <v>666161</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="96" t="s">
         <v>162</v>
       </c>
       <c r="D17" s="58" t="s">
@@ -2446,10 +2515,10 @@
       <c r="A18" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="98">
+      <c r="B18" s="95">
         <v>678866</v>
       </c>
-      <c r="C18" s="100" t="s">
+      <c r="C18" s="97" t="s">
         <v>163</v>
       </c>
       <c r="D18" s="65" t="s">
@@ -2470,10 +2539,10 @@
       <c r="A19" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="95">
         <v>679200</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="97" t="s">
         <v>164</v>
       </c>
       <c r="D19" s="65" t="s">
@@ -2494,10 +2563,10 @@
       <c r="A20" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="98">
+      <c r="B20" s="95">
         <v>681303</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="96" t="s">
         <v>165</v>
       </c>
       <c r="D20" s="58" t="s">
@@ -2522,10 +2591,10 @@
       <c r="A21" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="98">
+      <c r="B21" s="95">
         <v>680390</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="96" t="s">
         <v>166</v>
       </c>
       <c r="D21" s="58" t="s">
@@ -2548,8 +2617,8 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="57"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
@@ -2562,10 +2631,10 @@
       <c r="A23" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="95">
         <v>640861</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="96" t="s">
         <v>149</v>
       </c>
       <c r="D23" s="58" t="s">
@@ -2590,10 +2659,10 @@
       <c r="A24" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="98">
+      <c r="B24" s="95">
         <v>583893</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="96" t="s">
         <v>150</v>
       </c>
       <c r="D24" s="58" t="s">
@@ -2618,10 +2687,10 @@
       <c r="A25" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="98">
+      <c r="B25" s="95">
         <v>583895</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="96" t="s">
         <v>151</v>
       </c>
       <c r="D25" s="58" t="s">
@@ -2646,10 +2715,10 @@
       <c r="A26" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="98">
+      <c r="B26" s="95">
         <v>582426</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="96" t="s">
         <v>152</v>
       </c>
       <c r="D26" s="58" t="s">
@@ -2674,10 +2743,10 @@
       <c r="A27" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="98">
+      <c r="B27" s="95">
         <v>582480</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="96" t="s">
         <v>153</v>
       </c>
       <c r="D27" s="58" t="s">
@@ -2702,10 +2771,10 @@
       <c r="A28" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="98">
+      <c r="B28" s="95">
         <v>582565</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="96" t="s">
         <v>154</v>
       </c>
       <c r="D28" s="58" t="s">
@@ -2728,8 +2797,8 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="59"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -2742,10 +2811,10 @@
       <c r="A30" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="98">
+      <c r="B30" s="95">
         <v>739481</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="96" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="58" t="s">
@@ -2768,10 +2837,10 @@
       <c r="A31" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="98">
+      <c r="B31" s="95">
         <v>739576</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="96" t="s">
         <v>147</v>
       </c>
       <c r="D31" s="58" t="s">
@@ -2796,10 +2865,10 @@
       <c r="A32" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="98">
+      <c r="B32" s="95">
         <v>844419</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="96" t="s">
         <v>137</v>
       </c>
       <c r="D32" s="58" t="s">
@@ -2822,10 +2891,10 @@
       <c r="A33" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="98">
+      <c r="B33" s="95">
         <v>844428</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="96" t="s">
         <v>140</v>
       </c>
       <c r="D33" s="58" t="s">
@@ -2848,10 +2917,10 @@
       <c r="A34" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="98">
+      <c r="B34" s="95">
         <v>844429</v>
       </c>
-      <c r="C34" s="99" t="s">
+      <c r="C34" s="96" t="s">
         <v>148</v>
       </c>
       <c r="D34" s="58" t="s">
@@ -2872,8 +2941,8 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="59"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
@@ -2886,10 +2955,10 @@
       <c r="A36" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="99">
+      <c r="B36" s="96">
         <v>293979</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="91" t="s">
         <v>188</v>
       </c>
       <c r="D36" s="58" t="s">
@@ -2910,10 +2979,10 @@
       <c r="A37" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="101">
+      <c r="B37" s="98">
         <v>741265</v>
       </c>
-      <c r="C37" s="102" t="s">
+      <c r="C37" s="99" t="s">
         <v>189</v>
       </c>
       <c r="D37" s="58" t="s">
@@ -2936,10 +3005,10 @@
       <c r="A38" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="101">
+      <c r="B38" s="98">
         <v>289236</v>
       </c>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="99" t="s">
         <v>190</v>
       </c>
       <c r="D38" s="65" t="s">
@@ -2958,10 +3027,10 @@
       <c r="A39" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B39" s="101">
+      <c r="B39" s="98">
         <v>288521</v>
       </c>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="99" t="s">
         <v>191</v>
       </c>
       <c r="D39" s="65" t="s">
@@ -2980,10 +3049,10 @@
       <c r="A40" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B40" s="101">
+      <c r="B40" s="98">
         <v>282194</v>
       </c>
-      <c r="C40" s="102" t="s">
+      <c r="C40" s="99" t="s">
         <v>192</v>
       </c>
       <c r="D40" s="58" t="s">
@@ -3008,10 +3077,10 @@
       <c r="A41" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="99">
+      <c r="B41" s="96">
         <v>127881</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="91" t="s">
         <v>216</v>
       </c>
       <c r="D41" s="65" t="s">
@@ -3030,10 +3099,10 @@
       <c r="A42" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="99">
+      <c r="B42" s="96">
         <v>127883</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="91" t="s">
         <v>217</v>
       </c>
       <c r="D42" s="58" t="s">
@@ -3054,10 +3123,10 @@
       <c r="A43" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="99">
+      <c r="B43" s="96">
         <v>140587</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="91" t="s">
         <v>218</v>
       </c>
       <c r="D43" s="58" t="s">
@@ -3080,8 +3149,8 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="59"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
       <c r="F44" s="59"/>
@@ -3094,17 +3163,17 @@
       <c r="A45" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="101">
+      <c r="B45" s="98">
         <v>402760</v>
       </c>
-      <c r="C45" s="102" t="s">
-        <v>270</v>
+      <c r="C45" s="99" t="s">
+        <v>269</v>
       </c>
       <c r="D45" s="65" t="s">
         <v>169</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F45" s="58"/>
       <c r="G45" s="61" t="s">
@@ -3117,10 +3186,10 @@
       <c r="A46" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="101">
+      <c r="B46" s="98">
         <v>1102235</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="99" t="s">
         <v>223</v>
       </c>
       <c r="D46" s="58" t="s">
@@ -3141,10 +3210,10 @@
       <c r="A47" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="101">
+      <c r="B47" s="98">
         <v>1102236</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="99" t="s">
         <v>224</v>
       </c>
       <c r="D47" s="58" t="s">
@@ -3165,10 +3234,10 @@
       <c r="A48" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="B48" s="101">
+      <c r="B48" s="98">
         <v>1105452</v>
       </c>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="99" t="s">
         <v>225</v>
       </c>
       <c r="D48" s="58" t="s">
@@ -3186,13 +3255,13 @@
       <c r="J48" s="59"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="B49" s="103">
+      <c r="B49" s="100">
         <v>1105461</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="101" t="s">
         <v>226</v>
       </c>
       <c r="D49" s="58" t="s">
@@ -3213,17 +3282,17 @@
       <c r="A50" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="B50" s="101">
+      <c r="B50" s="98">
         <v>1105462</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="99" t="s">
         <v>227</v>
       </c>
       <c r="D50" s="65" t="s">
         <v>169</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F50" s="59"/>
       <c r="G50" s="61" t="s">
@@ -3237,10 +3306,10 @@
       <c r="A51" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="98">
+      <c r="B51" s="95">
         <v>949791</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="89" t="s">
         <v>248</v>
       </c>
       <c r="D51" s="58" t="s">
@@ -3252,15 +3321,15 @@
       </c>
       <c r="G51" s="59"/>
       <c r="H51" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I51" s="64"/>
       <c r="J51" s="59"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="59"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
@@ -3271,12 +3340,12 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" s="99">
+        <v>268</v>
+      </c>
+      <c r="B53" s="96">
         <v>127834</v>
       </c>
-      <c r="C53" s="94" t="s">
+      <c r="C53" s="91" t="s">
         <v>257</v>
       </c>
       <c r="D53" s="58" t="s">
@@ -3288,19 +3357,19 @@
       </c>
       <c r="G53" s="59"/>
       <c r="H53" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I53" s="64"/>
       <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B54" s="99">
+        <v>268</v>
+      </c>
+      <c r="B54" s="96">
         <v>127836</v>
       </c>
-      <c r="C54" s="94" t="s">
+      <c r="C54" s="91" t="s">
         <v>260</v>
       </c>
       <c r="D54" s="58" t="s">
@@ -3312,19 +3381,19 @@
       </c>
       <c r="G54" s="59"/>
       <c r="H54" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I54" s="64"/>
       <c r="J54" s="59"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B55" s="99">
+        <v>268</v>
+      </c>
+      <c r="B55" s="96">
         <v>127921</v>
       </c>
-      <c r="C55" s="94" t="s">
+      <c r="C55" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D55" s="58" t="s">
@@ -3336,20 +3405,20 @@
       </c>
       <c r="G55" s="59"/>
       <c r="H55" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I55" s="64"/>
       <c r="J55" s="59"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B56" s="99">
+        <v>268</v>
+      </c>
+      <c r="B56" s="96">
         <v>127922</v>
       </c>
-      <c r="C56" s="94" t="s">
-        <v>273</v>
+      <c r="C56" s="91" t="s">
+        <v>272</v>
       </c>
       <c r="D56" s="58" t="s">
         <v>97</v>
@@ -3360,20 +3429,20 @@
       </c>
       <c r="G56" s="59"/>
       <c r="H56" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I56" s="64"/>
       <c r="J56" s="59"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B57" s="99">
+        <v>268</v>
+      </c>
+      <c r="B57" s="96">
         <v>135019</v>
       </c>
-      <c r="C57" s="94" t="s">
-        <v>274</v>
+      <c r="C57" s="91" t="s">
+        <v>273</v>
       </c>
       <c r="D57" s="58" t="s">
         <v>97</v>
@@ -3384,20 +3453,20 @@
       </c>
       <c r="G57" s="59"/>
       <c r="H57" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I57" s="64"/>
       <c r="J57" s="59"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B58" s="99">
+        <v>268</v>
+      </c>
+      <c r="B58" s="96">
         <v>135022</v>
       </c>
-      <c r="C58" s="94" t="s">
-        <v>275</v>
+      <c r="C58" s="91" t="s">
+        <v>274</v>
       </c>
       <c r="D58" s="58" t="s">
         <v>97</v>
@@ -3408,15 +3477,15 @@
       </c>
       <c r="G58" s="59"/>
       <c r="H58" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I58" s="64"/>
       <c r="J58" s="59"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="59"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="93"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="59"/>
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
@@ -3427,13 +3496,13 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="B60" s="111">
+        <v>304</v>
+      </c>
+      <c r="B60" s="108">
         <v>127831</v>
       </c>
-      <c r="C60" s="112" t="s">
-        <v>286</v>
+      <c r="C60" s="109" t="s">
+        <v>285</v>
       </c>
       <c r="D60" s="58" t="s">
         <v>97</v>
@@ -3444,20 +3513,20 @@
       </c>
       <c r="G60" s="59"/>
       <c r="H60" s="64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I60" s="64"/>
       <c r="J60" s="59"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="B61" s="111">
+        <v>304</v>
+      </c>
+      <c r="B61" s="108">
         <v>127843</v>
       </c>
-      <c r="C61" s="112" t="s">
-        <v>293</v>
+      <c r="C61" s="109" t="s">
+        <v>292</v>
       </c>
       <c r="D61" s="58" t="s">
         <v>97</v>
@@ -3468,20 +3537,20 @@
       </c>
       <c r="G61" s="59"/>
       <c r="H61" s="64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I61" s="64"/>
       <c r="J61" s="59"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="B62" s="111">
+        <v>304</v>
+      </c>
+      <c r="B62" s="108">
         <v>127850</v>
       </c>
-      <c r="C62" s="112" t="s">
-        <v>295</v>
+      <c r="C62" s="109" t="s">
+        <v>294</v>
       </c>
       <c r="D62" s="58" t="s">
         <v>97</v>
@@ -3492,20 +3561,20 @@
       </c>
       <c r="G62" s="59"/>
       <c r="H62" s="64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I62" s="64"/>
       <c r="J62" s="59"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="B63" s="111">
+        <v>304</v>
+      </c>
+      <c r="B63" s="108">
         <v>729500</v>
       </c>
-      <c r="C63" s="112" t="s">
-        <v>301</v>
+      <c r="C63" s="109" t="s">
+        <v>300</v>
       </c>
       <c r="D63" s="58" t="s">
         <v>97</v>
@@ -3516,7 +3585,7 @@
       </c>
       <c r="G63" s="59"/>
       <c r="H63" s="64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I63" s="64"/>
       <c r="J63" s="59"/>
@@ -3533,8 +3602,8 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="59"/>
-      <c r="B65" s="93"/>
-      <c r="C65" s="93"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
@@ -3545,8 +3614,8 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="59"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="93"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
@@ -3557,8 +3626,8 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="59"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="93"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
@@ -3569,8 +3638,8 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="59"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="93"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
       <c r="F68" s="59"/>
@@ -3581,8 +3650,8 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="59"/>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
       <c r="F69" s="59"/>
@@ -3593,8 +3662,8 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="59"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="93"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
       <c r="F70" s="59"/>
@@ -3605,8 +3674,8 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="59"/>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
       <c r="F71" s="59"/>
@@ -3617,8 +3686,8 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="59"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
@@ -3629,8 +3698,8 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="59"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
       <c r="F73" s="59"/>
@@ -3641,8 +3710,8 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="59"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
       <c r="F74" s="59"/>
@@ -3653,8 +3722,8 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="59"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="93"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
       <c r="F75" s="59"/>
@@ -3665,8 +3734,8 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="59"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="93"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
       <c r="F76" s="59"/>
@@ -3677,8 +3746,8 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="59"/>
-      <c r="B77" s="93"/>
-      <c r="C77" s="93"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="59"/>
       <c r="E77" s="59"/>
       <c r="F77" s="59"/>
@@ -3689,8 +3758,8 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="59"/>
-      <c r="B78" s="93"/>
-      <c r="C78" s="93"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="59"/>
       <c r="E78" s="59"/>
       <c r="F78" s="59"/>
@@ -3701,8 +3770,8 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="59"/>
-      <c r="B79" s="93"/>
-      <c r="C79" s="93"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="59"/>
       <c r="E79" s="59"/>
       <c r="F79" s="59"/>
@@ -3713,8 +3782,8 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="59"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
       <c r="D80" s="59"/>
       <c r="E80" s="59"/>
       <c r="F80" s="59"/>
@@ -3725,8 +3794,8 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="59"/>
-      <c r="B81" s="93"/>
-      <c r="C81" s="93"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="59"/>
       <c r="E81" s="59"/>
       <c r="F81" s="59"/>
@@ -3737,8 +3806,8 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="59"/>
-      <c r="B82" s="93"/>
-      <c r="C82" s="93"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="90"/>
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
@@ -3749,8 +3818,8 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="59"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="90"/>
       <c r="D83" s="59"/>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>
@@ -3761,8 +3830,8 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="59"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="93"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
       <c r="D84" s="59"/>
       <c r="E84" s="59"/>
       <c r="F84" s="59"/>
@@ -3773,8 +3842,8 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="59"/>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
       <c r="D85" s="59"/>
       <c r="E85" s="59"/>
       <c r="F85" s="59"/>
@@ -3785,8 +3854,8 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="59"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="90"/>
       <c r="D86" s="59"/>
       <c r="E86" s="59"/>
       <c r="F86" s="59"/>
@@ -3797,8 +3866,8 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="59"/>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="59"/>
       <c r="E87" s="59"/>
       <c r="F87" s="59"/>
@@ -3809,8 +3878,8 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="59"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="93"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="90"/>
       <c r="D88" s="59"/>
       <c r="E88" s="59"/>
       <c r="F88" s="59"/>
@@ -3821,8 +3890,8 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="59"/>
-      <c r="B89" s="93"/>
-      <c r="C89" s="93"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="90"/>
       <c r="D89" s="59"/>
       <c r="E89" s="59"/>
       <c r="F89" s="59"/>
@@ -3833,8 +3902,8 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="59"/>
-      <c r="B90" s="93"/>
-      <c r="C90" s="93"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="90"/>
       <c r="D90" s="59"/>
       <c r="E90" s="59"/>
       <c r="F90" s="59"/>
@@ -3845,8 +3914,8 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="59"/>
-      <c r="B91" s="93"/>
-      <c r="C91" s="93"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="90"/>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
       <c r="F91" s="59"/>
@@ -3857,8 +3926,8 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="59"/>
-      <c r="B92" s="93"/>
-      <c r="C92" s="93"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="90"/>
       <c r="D92" s="59"/>
       <c r="E92" s="59"/>
       <c r="F92" s="59"/>
@@ -3869,8 +3938,8 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="59"/>
-      <c r="B93" s="93"/>
-      <c r="C93" s="93"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="59"/>
       <c r="E93" s="59"/>
       <c r="F93" s="59"/>
@@ -3881,8 +3950,8 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="59"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="93"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="59"/>
       <c r="E94" s="59"/>
       <c r="F94" s="59"/>
@@ -3893,8 +3962,8 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="59"/>
-      <c r="B95" s="93"/>
-      <c r="C95" s="93"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="90"/>
       <c r="D95" s="59"/>
       <c r="E95" s="59"/>
       <c r="F95" s="59"/>
@@ -3905,8 +3974,8 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="59"/>
-      <c r="B96" s="93"/>
-      <c r="C96" s="93"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="59"/>
       <c r="E96" s="59"/>
       <c r="F96" s="59"/>
@@ -3917,8 +3986,8 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="59"/>
-      <c r="B97" s="93"/>
-      <c r="C97" s="93"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="90"/>
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
@@ -3929,8 +3998,8 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="59"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="93"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="90"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
       <c r="F98" s="59"/>
@@ -3941,8 +4010,8 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="59"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="93"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="90"/>
       <c r="D99" s="59"/>
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
@@ -3953,8 +4022,8 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="59"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="90"/>
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
       <c r="F100" s="59"/>
@@ -3965,8 +4034,8 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="59"/>
-      <c r="B101" s="93"/>
-      <c r="C101" s="93"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="90"/>
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59"/>
@@ -3977,8 +4046,8 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="59"/>
-      <c r="B102" s="93"/>
-      <c r="C102" s="93"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="90"/>
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
@@ -3989,8 +4058,8 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="59"/>
-      <c r="B103" s="93"/>
-      <c r="C103" s="93"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="90"/>
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59"/>
@@ -4001,8 +4070,8 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="59"/>
-      <c r="B104" s="93"/>
-      <c r="C104" s="93"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="90"/>
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
@@ -4013,8 +4082,8 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="59"/>
-      <c r="B105" s="93"/>
-      <c r="C105" s="93"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="90"/>
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
@@ -4025,8 +4094,8 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="59"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="93"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -4037,8 +4106,8 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="59"/>
-      <c r="B107" s="93"/>
-      <c r="C107" s="93"/>
+      <c r="B107" s="90"/>
+      <c r="C107" s="90"/>
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -4049,8 +4118,8 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="59"/>
-      <c r="B108" s="93"/>
-      <c r="C108" s="93"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="90"/>
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -4061,8 +4130,8 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="59"/>
-      <c r="B109" s="93"/>
-      <c r="C109" s="93"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="90"/>
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
@@ -4073,8 +4142,8 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="59"/>
-      <c r="B110" s="93"/>
-      <c r="C110" s="93"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="90"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
       <c r="F110" s="59"/>
@@ -4085,8 +4154,8 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="59"/>
-      <c r="B111" s="93"/>
-      <c r="C111" s="93"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="59"/>
       <c r="E111" s="59"/>
       <c r="F111" s="59"/>
@@ -4097,8 +4166,8 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="59"/>
-      <c r="B112" s="93"/>
-      <c r="C112" s="93"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
       <c r="F112" s="59"/>
@@ -4109,8 +4178,8 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="59"/>
-      <c r="B113" s="93"/>
-      <c r="C113" s="93"/>
+      <c r="B113" s="90"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="59"/>
       <c r="E113" s="59"/>
       <c r="F113" s="59"/>
@@ -4121,8 +4190,8 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="59"/>
-      <c r="B114" s="93"/>
-      <c r="C114" s="93"/>
+      <c r="B114" s="90"/>
+      <c r="C114" s="90"/>
       <c r="D114" s="59"/>
       <c r="E114" s="59"/>
       <c r="F114" s="59"/>
@@ -4133,8 +4202,8 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="59"/>
-      <c r="B115" s="93"/>
-      <c r="C115" s="93"/>
+      <c r="B115" s="90"/>
+      <c r="C115" s="90"/>
       <c r="D115" s="59"/>
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
@@ -4145,8 +4214,8 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="59"/>
-      <c r="B116" s="93"/>
-      <c r="C116" s="93"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="90"/>
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
@@ -4157,8 +4226,8 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="59"/>
-      <c r="B117" s="93"/>
-      <c r="C117" s="93"/>
+      <c r="B117" s="90"/>
+      <c r="C117" s="90"/>
       <c r="D117" s="59"/>
       <c r="E117" s="59"/>
       <c r="F117" s="59"/>
@@ -4169,8 +4238,8 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="59"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="93"/>
+      <c r="B118" s="90"/>
+      <c r="C118" s="90"/>
       <c r="D118" s="59"/>
       <c r="E118" s="59"/>
       <c r="F118" s="59"/>
@@ -4181,8 +4250,8 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="59"/>
-      <c r="B119" s="93"/>
-      <c r="C119" s="93"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="90"/>
       <c r="D119" s="59"/>
       <c r="E119" s="59"/>
       <c r="F119" s="59"/>
@@ -4193,8 +4262,8 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="59"/>
-      <c r="B120" s="93"/>
-      <c r="C120" s="93"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="90"/>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59"/>
@@ -4205,8 +4274,8 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="59"/>
-      <c r="B121" s="93"/>
-      <c r="C121" s="93"/>
+      <c r="B121" s="90"/>
+      <c r="C121" s="90"/>
       <c r="D121" s="59"/>
       <c r="E121" s="59"/>
       <c r="F121" s="59"/>
@@ -4217,8 +4286,8 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="59"/>
-      <c r="B122" s="93"/>
-      <c r="C122" s="93"/>
+      <c r="B122" s="90"/>
+      <c r="C122" s="90"/>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
       <c r="F122" s="59"/>
@@ -4229,8 +4298,8 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="59"/>
-      <c r="B123" s="93"/>
-      <c r="C123" s="93"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="90"/>
       <c r="D123" s="59"/>
       <c r="E123" s="59"/>
       <c r="F123" s="59"/>
@@ -4241,8 +4310,8 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="59"/>
-      <c r="B124" s="93"/>
-      <c r="C124" s="93"/>
+      <c r="B124" s="90"/>
+      <c r="C124" s="90"/>
       <c r="D124" s="59"/>
       <c r="E124" s="59"/>
       <c r="F124" s="59"/>
@@ -4253,8 +4322,8 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="59"/>
-      <c r="B125" s="93"/>
-      <c r="C125" s="93"/>
+      <c r="B125" s="90"/>
+      <c r="C125" s="90"/>
       <c r="D125" s="59"/>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
@@ -4265,8 +4334,8 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="59"/>
-      <c r="B126" s="93"/>
-      <c r="C126" s="93"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="90"/>
       <c r="D126" s="59"/>
       <c r="E126" s="59"/>
       <c r="F126" s="59"/>
@@ -4277,8 +4346,8 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="59"/>
-      <c r="B127" s="93"/>
-      <c r="C127" s="93"/>
+      <c r="B127" s="90"/>
+      <c r="C127" s="90"/>
       <c r="D127" s="59"/>
       <c r="E127" s="59"/>
       <c r="F127" s="59"/>
@@ -4289,8 +4358,8 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="59"/>
-      <c r="B128" s="93"/>
-      <c r="C128" s="93"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="90"/>
       <c r="D128" s="59"/>
       <c r="E128" s="59"/>
       <c r="F128" s="59"/>
@@ -4301,8 +4370,8 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="59"/>
-      <c r="B129" s="93"/>
-      <c r="C129" s="93"/>
+      <c r="B129" s="90"/>
+      <c r="C129" s="90"/>
       <c r="D129" s="59"/>
       <c r="E129" s="59"/>
       <c r="F129" s="59"/>
@@ -4313,8 +4382,8 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="59"/>
-      <c r="B130" s="93"/>
-      <c r="C130" s="93"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="90"/>
       <c r="D130" s="59"/>
       <c r="E130" s="59"/>
       <c r="F130" s="59"/>
@@ -4325,8 +4394,8 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="59"/>
-      <c r="B131" s="93"/>
-      <c r="C131" s="93"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="90"/>
       <c r="D131" s="59"/>
       <c r="E131" s="59"/>
       <c r="F131" s="59"/>
@@ -4337,8 +4406,8 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="59"/>
-      <c r="B132" s="93"/>
-      <c r="C132" s="93"/>
+      <c r="B132" s="90"/>
+      <c r="C132" s="90"/>
       <c r="D132" s="59"/>
       <c r="E132" s="59"/>
       <c r="F132" s="59"/>
@@ -4349,8 +4418,8 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="59"/>
-      <c r="B133" s="93"/>
-      <c r="C133" s="93"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="90"/>
       <c r="D133" s="59"/>
       <c r="E133" s="59"/>
       <c r="F133" s="59"/>
@@ -4361,8 +4430,8 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="59"/>
-      <c r="B134" s="93"/>
-      <c r="C134" s="93"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="90"/>
       <c r="D134" s="59"/>
       <c r="E134" s="59"/>
       <c r="F134" s="59"/>
@@ -4494,269 +4563,267 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="88" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13" style="53" collapsed="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.85546875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13" style="53" collapsed="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="27" max="28" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15">
-      <c r="A1" s="87" t="s">
-        <v>266</v>
+      <c r="A1" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="39" t="s">
         <v>54</v>
       </c>
+      <c r="C1" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="D1" s="40" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="M1" s="50" t="s">
         <v>65</v>
       </c>
+      <c r="N1" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="O1" s="40" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="S1" s="40" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="T1" s="40" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="Y1" s="40" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="Z1" s="40" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AA1" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB1" s="40" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AC1" s="40" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AD1" s="40" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="AE1" s="40" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="AF1" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG1" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AH1" s="39" t="s">
         <v>70</v>
       </c>
+      <c r="AI1" s="106" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="89"/>
+      <c r="A2" s="35" t="s">
+        <v>176</v>
+      </c>
       <c r="B2" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="37">
+      <c r="C2" s="37">
         <v>369</v>
       </c>
+      <c r="D2" s="37"/>
       <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37">
+        <v>727</v>
+      </c>
       <c r="I2" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J2" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K2" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L2" s="37">
-        <v>2</v>
-      </c>
-      <c r="M2" s="37">
         <v>10000</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="37">
-        <v>1</v>
-      </c>
+      <c r="R2" s="37">
+        <v>1</v>
+      </c>
+      <c r="S2" s="37"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
+      <c r="V2" s="38"/>
       <c r="W2" s="38"/>
       <c r="X2" s="38"/>
       <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
+      <c r="Z2" s="38">
+        <v>1</v>
+      </c>
       <c r="AA2" s="38">
         <v>1</v>
       </c>
-      <c r="AB2" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="36" t="s">
+      <c r="AD2" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36" t="s">
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="41"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="111"/>
+      <c r="AI2" s="68"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="89" t="s">
-        <v>254</v>
+      <c r="A3" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="35" t="s">
         <v>160</v>
       </c>
+      <c r="C3" s="41"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37">
+        <v>727</v>
+      </c>
       <c r="I3" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J3" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K3" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L3" s="37">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37">
         <v>2</v>
       </c>
-      <c r="M3" s="37">
-        <v>10000</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="O3" s="37"/>
       <c r="P3" s="37">
         <v>2</v>
       </c>
-      <c r="Q3" s="37">
-        <v>2</v>
-      </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37">
-        <v>1</v>
-      </c>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37">
+        <v>1</v>
+      </c>
+      <c r="S3" s="37"/>
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
+      <c r="V3" s="41"/>
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
@@ -4768,22 +4835,20 @@
       <c r="AE3" s="41"/>
       <c r="AF3" s="41"/>
       <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="68"/>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="89" t="s">
-        <v>254</v>
+      <c r="A4" s="35" t="s">
+        <v>150</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="41">
+      <c r="C4" s="41">
         <v>3679</v>
       </c>
+      <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
@@ -4792,8 +4857,8 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
@@ -4812,118 +4877,114 @@
       <c r="AD4" s="41"/>
       <c r="AE4" s="41"/>
       <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="36" t="s">
+      <c r="AG4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AI4" s="37" t="s">
+      <c r="AH4" s="112" t="s">
         <v>78</v>
       </c>
+      <c r="AI4" s="68"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="37">
+      <c r="C5" s="37">
         <v>369</v>
       </c>
+      <c r="D5" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="E5" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37">
+        <v>727</v>
+      </c>
       <c r="I5" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J5" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K5" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L5" s="37">
-        <v>2</v>
-      </c>
-      <c r="M5" s="37">
         <v>10000</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="37">
-        <v>1</v>
-      </c>
+      <c r="R5" s="37">
+        <v>1</v>
+      </c>
+      <c r="S5" s="37"/>
       <c r="T5" s="37"/>
       <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
+      <c r="V5" s="41"/>
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="Z5" s="38">
+        <v>1</v>
+      </c>
       <c r="AA5" s="38">
         <v>1</v>
       </c>
-      <c r="AB5" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB5" s="38"/>
       <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="36" t="s">
+      <c r="AD5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36" t="s">
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="68"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="35" t="s">
         <v>157</v>
       </c>
+      <c r="C6" s="41"/>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="38">
+      <c r="G6" s="38">
         <v>1349</v>
       </c>
+      <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
+      <c r="K6" s="41">
+        <v>2</v>
+      </c>
       <c r="L6" s="41">
-        <v>2</v>
-      </c>
-      <c r="M6" s="41">
         <v>500</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="M6" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N6" s="41"/>
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="41"/>
@@ -4935,1244 +4996,1240 @@
       <c r="W6" s="41"/>
       <c r="X6" s="41"/>
       <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Z6" s="38">
+        <v>1</v>
+      </c>
       <c r="AA6" s="38">
         <v>1</v>
       </c>
-      <c r="AB6" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="36" t="s">
+      <c r="AD6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36" t="s">
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="68"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="89" t="s">
-        <v>231</v>
+      <c r="A7" s="43" t="s">
+        <v>153</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="37">
+      <c r="C7" s="37">
         <v>369</v>
       </c>
+      <c r="D7" s="41"/>
       <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37">
+        <v>727</v>
+      </c>
       <c r="I7" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J7" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K7" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L7" s="37">
-        <v>2</v>
-      </c>
-      <c r="M7" s="37">
         <v>10000</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="M7" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="37">
-        <v>1</v>
-      </c>
+      <c r="R7" s="37">
+        <v>1</v>
+      </c>
+      <c r="S7" s="37"/>
       <c r="T7" s="37"/>
       <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41">
         <v>3455</v>
       </c>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41">
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41">
         <v>2</v>
       </c>
+      <c r="Z7" s="38">
+        <v>1</v>
+      </c>
       <c r="AA7" s="38">
         <v>1</v>
       </c>
-      <c r="AB7" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB7" s="38"/>
       <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="36" t="s">
+      <c r="AD7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36" t="s">
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="68"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="89" t="s">
-        <v>231</v>
+      <c r="A8" s="43" t="s">
+        <v>154</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="43" t="s">
         <v>155</v>
       </c>
+      <c r="C8" s="41"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="36" t="s">
+      <c r="F8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37">
+        <v>727</v>
+      </c>
       <c r="I8" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J8" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K8" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L8" s="37">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37">
         <v>10000</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="M8" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41" t="s">
+      <c r="Q8" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41">
+      <c r="R8" s="41"/>
+      <c r="S8" s="41">
         <v>2</v>
       </c>
+      <c r="T8" s="41"/>
       <c r="U8" s="41"/>
       <c r="V8" s="41"/>
       <c r="W8" s="41"/>
       <c r="X8" s="41"/>
       <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="Z8" s="38">
+        <v>1</v>
+      </c>
       <c r="AA8" s="38">
         <v>1</v>
       </c>
-      <c r="AB8" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB8" s="38"/>
       <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="36" t="s">
+      <c r="AD8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36" t="s">
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="68"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="89"/>
+      <c r="A9" s="43" t="s">
+        <v>137</v>
+      </c>
       <c r="B9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="43" t="s">
         <v>138</v>
       </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="36" t="s">
+      <c r="F9" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37">
+        <v>727</v>
+      </c>
       <c r="I9" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J9" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K9" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L9" s="37">
-        <v>2</v>
-      </c>
-      <c r="M9" s="37">
         <v>1000</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="M9" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="37">
-        <v>1</v>
-      </c>
+      <c r="R9" s="37">
+        <v>1</v>
+      </c>
+      <c r="S9" s="41"/>
       <c r="T9" s="41"/>
       <c r="U9" s="41"/>
       <c r="V9" s="41"/>
       <c r="W9" s="41"/>
       <c r="X9" s="41"/>
       <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="Z9" s="38">
+        <v>1</v>
+      </c>
       <c r="AA9" s="38">
         <v>1</v>
       </c>
-      <c r="AB9" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB9" s="38"/>
       <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="36" t="s">
+      <c r="AD9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36" t="s">
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="68"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="89"/>
+      <c r="A10" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="B10" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="43" t="s">
         <v>142</v>
       </c>
+      <c r="C10" s="41"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37">
+        <v>727</v>
+      </c>
       <c r="I10" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J10" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K10" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L10" s="37">
-        <v>2</v>
-      </c>
-      <c r="M10" s="37">
         <v>1000</v>
       </c>
-      <c r="N10" s="51" t="s">
+      <c r="M10" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N10" s="41"/>
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="37">
-        <v>1</v>
-      </c>
+      <c r="R10" s="37">
+        <v>1</v>
+      </c>
+      <c r="S10" s="41"/>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
       <c r="V10" s="41"/>
       <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="38" t="s">
+      <c r="X10" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="Z10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="38">
+        <v>1</v>
+      </c>
       <c r="AA10" s="38">
         <v>1</v>
       </c>
-      <c r="AB10" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="36" t="s">
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36" t="s">
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="68"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="89"/>
+      <c r="A11" s="43" t="s">
+        <v>192</v>
+      </c>
       <c r="B11" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="37">
+      <c r="C11" s="37">
         <v>369</v>
       </c>
+      <c r="D11" s="41"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37">
+        <v>727</v>
+      </c>
       <c r="I11" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J11" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K11" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L11" s="37">
-        <v>2</v>
-      </c>
-      <c r="M11" s="37">
         <v>1000</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="M11" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="37">
-        <v>1</v>
-      </c>
+      <c r="R11" s="37">
+        <v>1</v>
+      </c>
+      <c r="S11" s="41"/>
       <c r="T11" s="41"/>
       <c r="U11" s="41"/>
       <c r="V11" s="41"/>
       <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="41"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="38">
+        <v>1</v>
+      </c>
       <c r="AA11" s="38">
         <v>1</v>
       </c>
-      <c r="AB11" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="41"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="36" t="s">
+        <v>197</v>
+      </c>
       <c r="AE11" s="36" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="AF11" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG11" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="68"/>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="89"/>
+      <c r="A12" s="45" t="s">
+        <v>217</v>
+      </c>
       <c r="B12" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="45" t="s">
         <v>219</v>
       </c>
+      <c r="C12" s="41"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37">
+        <v>727</v>
+      </c>
       <c r="I12" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J12" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K12" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L12" s="37">
-        <v>2</v>
-      </c>
-      <c r="M12" s="37">
         <v>10000</v>
       </c>
-      <c r="N12" s="51" t="s">
+      <c r="M12" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="37">
-        <v>1</v>
-      </c>
+      <c r="R12" s="37">
+        <v>1</v>
+      </c>
+      <c r="S12" s="41"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="38">
+      <c r="U12" s="38">
         <v>10</v>
       </c>
+      <c r="V12" s="41"/>
       <c r="W12" s="41"/>
       <c r="X12" s="41"/>
       <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="Z12" s="38">
+        <v>1</v>
+      </c>
       <c r="AA12" s="38">
         <v>1</v>
       </c>
-      <c r="AB12" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="41"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="36" t="s">
+        <v>197</v>
+      </c>
       <c r="AE12" s="36" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="AF12" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="68"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="89"/>
+      <c r="A13" s="45" t="s">
+        <v>218</v>
+      </c>
       <c r="B13" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="45" t="s">
         <v>221</v>
       </c>
+      <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37">
+        <v>727</v>
+      </c>
       <c r="I13" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J13" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K13" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L13" s="37">
-        <v>2</v>
-      </c>
-      <c r="M13" s="37">
         <v>10000</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="M13" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="37">
-        <v>1</v>
-      </c>
+      <c r="R13" s="37">
+        <v>1</v>
+      </c>
+      <c r="S13" s="41"/>
       <c r="T13" s="41"/>
       <c r="U13" s="41"/>
       <c r="V13" s="41"/>
       <c r="W13" s="41"/>
       <c r="X13" s="41"/>
       <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="Z13" s="38">
+        <v>1</v>
+      </c>
       <c r="AA13" s="38">
         <v>1</v>
       </c>
-      <c r="AB13" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="38" t="s">
+      <c r="AB13" s="38" t="s">
         <v>24</v>
       </c>
+      <c r="AC13" s="41"/>
       <c r="AD13" s="41"/>
       <c r="AE13" s="41"/>
       <c r="AF13" s="41"/>
       <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
+      <c r="AH13" s="111"/>
+      <c r="AI13" s="68"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="89"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>311</v>
-      </c>
+      <c r="C14" s="41"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37">
+        <v>727</v>
+      </c>
       <c r="I14" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J14" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K14" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L14" s="37">
-        <v>2</v>
-      </c>
-      <c r="M14" s="37">
         <v>10000</v>
       </c>
-      <c r="N14" s="51" t="s">
+      <c r="M14" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="41"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="37">
-        <v>1</v>
-      </c>
+      <c r="R14" s="37">
+        <v>1</v>
+      </c>
+      <c r="S14" s="37"/>
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
+      <c r="V14" s="41"/>
       <c r="W14" s="41"/>
       <c r="X14" s="41"/>
       <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
+      <c r="Z14" s="38">
+        <v>1</v>
+      </c>
       <c r="AA14" s="38">
         <v>1</v>
       </c>
-      <c r="AB14" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB14" s="38"/>
       <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="36" t="s">
+      <c r="AD14" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36" t="s">
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="68"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="89"/>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>313</v>
-      </c>
+      <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="36" t="s">
+      <c r="F15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37">
+        <v>727</v>
+      </c>
       <c r="I15" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J15" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K15" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L15" s="37">
-        <v>2</v>
-      </c>
-      <c r="M15" s="37">
         <v>10000</v>
       </c>
-      <c r="N15" s="51" t="s">
+      <c r="M15" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="41"/>
       <c r="P15" s="41"/>
       <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="37">
-        <v>1</v>
-      </c>
+      <c r="R15" s="37">
+        <v>1</v>
+      </c>
+      <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
+      <c r="V15" s="41"/>
       <c r="W15" s="41"/>
       <c r="X15" s="41"/>
       <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="Z15" s="38">
+        <v>1</v>
+      </c>
       <c r="AA15" s="38">
         <v>1</v>
       </c>
-      <c r="AB15" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB15" s="38"/>
       <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="36" t="s">
+      <c r="AD15" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36" t="s">
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="68"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="89"/>
+      <c r="A16" s="45" t="s">
+        <v>313</v>
+      </c>
       <c r="B16" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>315</v>
-      </c>
+      <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="36" t="s">
+      <c r="F16" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37">
+        <v>727</v>
+      </c>
       <c r="I16" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J16" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K16" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L16" s="37">
-        <v>2</v>
-      </c>
-      <c r="M16" s="37">
         <v>10000</v>
       </c>
-      <c r="N16" s="51" t="s">
+      <c r="M16" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="37">
-        <v>1</v>
-      </c>
+      <c r="R16" s="37">
+        <v>1</v>
+      </c>
+      <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
+      <c r="V16" s="41"/>
       <c r="W16" s="41"/>
       <c r="X16" s="41"/>
       <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="Z16" s="38">
+        <v>1</v>
+      </c>
       <c r="AA16" s="38">
         <v>1</v>
       </c>
-      <c r="AB16" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="36" t="s">
+      <c r="AD16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36" t="s">
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="111"/>
+      <c r="AI16" s="68"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="89"/>
+      <c r="A17" s="45" t="s">
+        <v>315</v>
+      </c>
       <c r="B17" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>317</v>
-      </c>
+      <c r="C17" s="41"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="36" t="s">
+      <c r="F17" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37">
+        <v>727</v>
+      </c>
       <c r="I17" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J17" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K17" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L17" s="37">
-        <v>2</v>
-      </c>
-      <c r="M17" s="37">
         <v>10000</v>
       </c>
-      <c r="N17" s="51" t="s">
+      <c r="M17" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="37">
-        <v>1</v>
-      </c>
+      <c r="R17" s="37">
+        <v>1</v>
+      </c>
+      <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
+      <c r="V17" s="41"/>
       <c r="W17" s="41"/>
       <c r="X17" s="41"/>
       <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
+      <c r="Z17" s="38">
+        <v>1</v>
+      </c>
       <c r="AA17" s="38">
         <v>1</v>
       </c>
-      <c r="AB17" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="36" t="s">
+      <c r="AD17" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36" t="s">
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="111"/>
+      <c r="AI17" s="68"/>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" s="89"/>
+      <c r="A18" s="45" t="s">
+        <v>317</v>
+      </c>
       <c r="B18" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>319</v>
-      </c>
+      <c r="C18" s="41"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37">
+        <v>727</v>
+      </c>
       <c r="I18" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J18" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K18" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L18" s="37">
-        <v>2</v>
-      </c>
-      <c r="M18" s="37">
         <v>10000</v>
       </c>
-      <c r="N18" s="51" t="s">
+      <c r="M18" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="37">
-        <v>1</v>
-      </c>
+      <c r="R18" s="37">
+        <v>1</v>
+      </c>
+      <c r="S18" s="37"/>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
+      <c r="V18" s="41"/>
       <c r="W18" s="41"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
+      <c r="Z18" s="38">
+        <v>1</v>
+      </c>
       <c r="AA18" s="38">
         <v>1</v>
       </c>
-      <c r="AB18" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="38"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="36" t="s">
+      <c r="AD18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36" t="s">
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="68"/>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="89"/>
+      <c r="A19" s="45" t="s">
+        <v>319</v>
+      </c>
       <c r="B19" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>322</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="36" t="s">
+      <c r="F19" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37">
+        <v>727</v>
+      </c>
       <c r="I19" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J19" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K19" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L19" s="37">
-        <v>2</v>
-      </c>
-      <c r="M19" s="37">
         <v>10000</v>
       </c>
-      <c r="N19" s="51" t="s">
+      <c r="M19" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="41"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="37">
-        <v>1</v>
-      </c>
+      <c r="R19" s="37">
+        <v>1</v>
+      </c>
+      <c r="S19" s="37"/>
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
+      <c r="V19" s="41"/>
       <c r="W19" s="41"/>
       <c r="X19" s="41"/>
       <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
+      <c r="Z19" s="38">
+        <v>1</v>
+      </c>
       <c r="AA19" s="38">
         <v>1</v>
       </c>
-      <c r="AB19" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB19" s="38"/>
       <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="36" t="s">
+      <c r="AD19" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36" t="s">
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="111"/>
+      <c r="AI19" s="68"/>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="89"/>
+      <c r="A20" s="45" t="s">
+        <v>320</v>
+      </c>
       <c r="B20" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>323</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="36" t="s">
+      <c r="F20" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37">
+        <v>727</v>
+      </c>
       <c r="I20" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J20" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K20" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L20" s="37">
-        <v>2</v>
-      </c>
-      <c r="M20" s="37">
         <v>10000</v>
       </c>
-      <c r="N20" s="51" t="s">
+      <c r="M20" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="37">
-        <v>1</v>
-      </c>
+      <c r="R20" s="37">
+        <v>1</v>
+      </c>
+      <c r="S20" s="37"/>
       <c r="T20" s="37"/>
       <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
+      <c r="V20" s="41"/>
       <c r="W20" s="41"/>
       <c r="X20" s="41"/>
       <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
+      <c r="Z20" s="38">
+        <v>1</v>
+      </c>
       <c r="AA20" s="38">
         <v>1</v>
       </c>
-      <c r="AB20" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="36" t="s">
+      <c r="AD20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36" t="s">
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="111"/>
+      <c r="AI20" s="68"/>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="89"/>
+      <c r="A21" s="45" t="s">
+        <v>323</v>
+      </c>
       <c r="B21" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>332</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="36" t="s">
+      <c r="F21" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37">
+        <v>727</v>
+      </c>
       <c r="I21" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J21" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K21" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L21" s="37">
-        <v>2</v>
-      </c>
-      <c r="M21" s="37">
         <v>10000</v>
       </c>
-      <c r="N21" s="51" t="s">
+      <c r="M21" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="41"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="37">
-        <v>1</v>
-      </c>
+      <c r="R21" s="37">
+        <v>1</v>
+      </c>
+      <c r="S21" s="37"/>
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
+      <c r="V21" s="41"/>
       <c r="W21" s="41"/>
       <c r="X21" s="41"/>
       <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
+      <c r="Z21" s="38">
+        <v>1</v>
+      </c>
       <c r="AA21" s="38">
         <v>1</v>
       </c>
-      <c r="AB21" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB21" s="38"/>
       <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="36" t="s">
+      <c r="AD21" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36" t="s">
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="111"/>
+      <c r="AI21" s="68"/>
     </row>
     <row r="22" spans="1:35">
-      <c r="A22" s="89"/>
+      <c r="A22" s="45" t="s">
+        <v>324</v>
+      </c>
       <c r="B22" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>333</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C22" s="41"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37">
+        <v>727</v>
+      </c>
       <c r="I22" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J22" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K22" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L22" s="37">
-        <v>2</v>
-      </c>
-      <c r="M22" s="37">
         <v>10000</v>
       </c>
-      <c r="N22" s="51" t="s">
+      <c r="M22" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="37">
-        <v>1</v>
-      </c>
+      <c r="R22" s="37">
+        <v>1</v>
+      </c>
+      <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
+      <c r="V22" s="41"/>
       <c r="W22" s="41"/>
       <c r="X22" s="41"/>
       <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="Z22" s="38">
+        <v>1</v>
+      </c>
       <c r="AA22" s="38">
         <v>1</v>
       </c>
-      <c r="AB22" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB22" s="38"/>
       <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="36" t="s">
+      <c r="AD22" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36" t="s">
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="111"/>
+      <c r="AI22" s="68"/>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" s="89"/>
+      <c r="A23" s="45" t="s">
+        <v>325</v>
+      </c>
       <c r="B23" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>334</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C23" s="41"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="36" t="s">
+      <c r="F23" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37">
+        <v>727</v>
+      </c>
       <c r="I23" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J23" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K23" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L23" s="37">
-        <v>2</v>
-      </c>
-      <c r="M23" s="37">
         <v>10000</v>
       </c>
-      <c r="N23" s="51" t="s">
+      <c r="M23" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="41"/>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="37">
-        <v>1</v>
-      </c>
+      <c r="R23" s="37">
+        <v>1</v>
+      </c>
+      <c r="S23" s="37"/>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
+      <c r="V23" s="41"/>
       <c r="W23" s="41"/>
       <c r="X23" s="41"/>
       <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="Z23" s="38">
+        <v>1</v>
+      </c>
       <c r="AA23" s="38">
         <v>1</v>
       </c>
-      <c r="AB23" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB23" s="38"/>
       <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="36" t="s">
+      <c r="AD23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36" t="s">
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="111"/>
+      <c r="AI23" s="68"/>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="89"/>
+      <c r="A24" s="45" t="s">
+        <v>326</v>
+      </c>
       <c r="B24" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>335</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37">
+        <v>727</v>
+      </c>
       <c r="I24" s="37">
-        <v>727</v>
+        <v>369</v>
       </c>
       <c r="J24" s="37">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K24" s="37">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="L24" s="37">
-        <v>2</v>
-      </c>
-      <c r="M24" s="37">
         <v>10000</v>
       </c>
-      <c r="N24" s="51" t="s">
+      <c r="M24" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="37">
-        <v>1</v>
-      </c>
+      <c r="R24" s="37">
+        <v>1</v>
+      </c>
+      <c r="S24" s="37"/>
       <c r="T24" s="37"/>
       <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
+      <c r="V24" s="41"/>
       <c r="W24" s="41"/>
       <c r="X24" s="41"/>
       <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="Z24" s="38">
+        <v>1</v>
+      </c>
       <c r="AA24" s="38">
         <v>1</v>
       </c>
-      <c r="AB24" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB24" s="38"/>
       <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="36" t="s">
+      <c r="AD24" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36" t="s">
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="68"/>
     </row>
     <row r="25" spans="1:35">
-      <c r="A25" s="89"/>
+      <c r="A25" s="45" t="s">
+        <v>327</v>
+      </c>
       <c r="B25" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>336</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C25" s="41"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="38" t="s">
+      <c r="F25" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="38">
+      <c r="G25" s="38">
         <v>1349</v>
       </c>
+      <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="K25" s="41">
+        <v>2</v>
+      </c>
       <c r="L25" s="41">
-        <v>2</v>
-      </c>
-      <c r="M25" s="41">
         <v>500</v>
       </c>
-      <c r="N25" s="51" t="s">
+      <c r="M25" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N25" s="41"/>
       <c r="O25" s="41"/>
       <c r="P25" s="41"/>
       <c r="Q25" s="41"/>
@@ -6184,54 +6241,54 @@
       <c r="W25" s="41"/>
       <c r="X25" s="41"/>
       <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
+      <c r="Z25" s="38">
+        <v>1</v>
+      </c>
       <c r="AA25" s="38">
         <v>1</v>
       </c>
-      <c r="AB25" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB25" s="38"/>
       <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="36" t="s">
+      <c r="AD25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36" t="s">
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="111"/>
+      <c r="AI25" s="68"/>
     </row>
     <row r="26" spans="1:35">
-      <c r="A26" s="89"/>
+      <c r="A26" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="B26" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>337</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C26" s="41"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="38" t="s">
+      <c r="F26" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="38">
+      <c r="G26" s="38">
         <v>1349</v>
       </c>
+      <c r="H26" s="41"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
+      <c r="K26" s="41">
+        <v>2</v>
+      </c>
       <c r="L26" s="41">
-        <v>2</v>
-      </c>
-      <c r="M26" s="41">
         <v>500</v>
       </c>
-      <c r="N26" s="51" t="s">
+      <c r="M26" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N26" s="41"/>
       <c r="O26" s="41"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
@@ -6251,37 +6308,38 @@
       <c r="AE26" s="41"/>
       <c r="AF26" s="41"/>
       <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
+      <c r="AH26" s="111"/>
+      <c r="AI26" s="68"/>
     </row>
     <row r="27" spans="1:35">
+      <c r="A27" s="45" t="s">
+        <v>329</v>
+      </c>
       <c r="B27" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>338</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C27" s="41"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="38" t="s">
+      <c r="F27" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="38">
+      <c r="G27" s="38">
         <v>1349</v>
       </c>
+      <c r="H27" s="41"/>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
+      <c r="K27" s="41">
+        <v>2</v>
+      </c>
       <c r="L27" s="41">
-        <v>2</v>
-      </c>
-      <c r="M27" s="41">
         <v>500</v>
       </c>
-      <c r="N27" s="51" t="s">
+      <c r="M27" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N27" s="41"/>
       <c r="O27" s="41"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="41"/>
@@ -6293,53 +6351,54 @@
       <c r="W27" s="41"/>
       <c r="X27" s="41"/>
       <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="Z27" s="38">
+        <v>1</v>
+      </c>
       <c r="AA27" s="38">
         <v>1</v>
       </c>
-      <c r="AB27" s="38">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="38"/>
       <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="36" t="s">
+      <c r="AD27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36" t="s">
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="111"/>
+      <c r="AI27" s="68"/>
     </row>
     <row r="28" spans="1:35">
+      <c r="A28" s="45" t="s">
+        <v>330</v>
+      </c>
       <c r="B28" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>339</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="38" t="s">
+      <c r="F28" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="38">
+      <c r="G28" s="38">
         <v>1349</v>
       </c>
+      <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
+      <c r="K28" s="41">
+        <v>2</v>
+      </c>
       <c r="L28" s="41">
-        <v>2</v>
-      </c>
-      <c r="M28" s="41">
         <v>500</v>
       </c>
-      <c r="N28" s="51" t="s">
+      <c r="M28" s="51" t="s">
         <v>139</v>
       </c>
+      <c r="N28" s="68"/>
       <c r="O28" s="68"/>
       <c r="P28" s="68"/>
       <c r="Q28" s="68"/>
@@ -6359,8 +6418,54 @@
       <c r="AE28" s="68"/>
       <c r="AF28" s="68"/>
       <c r="AG28" s="68"/>
-      <c r="AH28" s="68"/>
+      <c r="AH28" s="113"/>
       <c r="AI28" s="68"/>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" s="110" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="68"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="68"/>
+      <c r="AG29" s="68"/>
+      <c r="AH29" s="68"/>
+      <c r="AI29" s="41">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="42" spans="32:32">
+      <c r="AF42" s="114"/>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0833999999999999" bottom="1.0833999999999999" header="0.94450000000000001" footer="0.94450000000000001"/>
@@ -6374,10 +6479,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="A15" sqref="A15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6412,9 +6517,12 @@
     <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="11.28515625" customWidth="1" collapsed="1"/>
     <col min="34" max="35" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:38" ht="30">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -6520,8 +6628,17 @@
       <c r="AI1" s="39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="106" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK1" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL1" s="49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="35" t="s">
         <v>165</v>
       </c>
@@ -6580,15 +6697,18 @@
         <v>1</v>
       </c>
       <c r="AF2" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG2" s="36" t="s">
         <v>77</v>
       </c>
       <c r="AH2" s="68"/>
       <c r="AI2" s="68"/>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="35" t="s">
         <v>149</v>
       </c>
@@ -6648,8 +6768,11 @@
       <c r="AG3" s="68"/>
       <c r="AH3" s="68"/>
       <c r="AI3" s="68"/>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="35" t="s">
         <v>150</v>
       </c>
@@ -6695,13 +6818,16 @@
       <c r="AI4" s="37" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="45" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="36"/>
@@ -6744,8 +6870,11 @@
       <c r="AG5" s="68"/>
       <c r="AH5" s="68"/>
       <c r="AI5" s="68"/>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="45" t="s">
         <v>188</v>
       </c>
@@ -6809,8 +6938,11 @@
       <c r="AG6" s="68"/>
       <c r="AH6" s="68"/>
       <c r="AI6" s="68"/>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="45" t="s">
         <v>217</v>
       </c>
@@ -6864,14 +6996,25 @@
       <c r="AG7" s="68"/>
       <c r="AH7" s="68"/>
       <c r="AI7" s="68"/>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="46"/>
-      <c r="B8" s="45"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>358</v>
+      </c>
       <c r="C8" s="37"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="E8" s="37">
+        <v>727</v>
+      </c>
+      <c r="F8" s="37">
+        <v>19</v>
+      </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
@@ -6884,8 +7027,12 @@
       <c r="P8" s="48"/>
       <c r="Q8" s="41"/>
       <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
+      <c r="S8" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="T8" s="38">
+        <v>727</v>
+      </c>
       <c r="U8" s="68"/>
       <c r="V8" s="38"/>
       <c r="W8" s="68"/>
@@ -6901,10 +7048,19 @@
       <c r="AG8" s="68"/>
       <c r="AH8" s="68"/>
       <c r="AI8" s="68"/>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="46"/>
-      <c r="B9" s="45"/>
+      <c r="AJ8" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="68"/>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>370</v>
+      </c>
       <c r="C9" s="68"/>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
@@ -6921,9 +7077,11 @@
       <c r="P9" s="48"/>
       <c r="Q9" s="41"/>
       <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
+      <c r="S9" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
       <c r="V9" s="38"/>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
@@ -6938,10 +7096,21 @@
       <c r="AG9" s="68"/>
       <c r="AH9" s="68"/>
       <c r="AI9" s="68"/>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="68">
+        <v>813</v>
+      </c>
+      <c r="AL9" s="68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>371</v>
+      </c>
       <c r="C10" s="68"/>
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
@@ -6958,7 +7127,9 @@
       <c r="P10" s="48"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
+      <c r="S10" s="38" t="s">
+        <v>377</v>
+      </c>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
       <c r="V10" s="38"/>
@@ -6975,10 +7146,21 @@
       <c r="AG10" s="68"/>
       <c r="AH10" s="68"/>
       <c r="AI10" s="68"/>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="68">
+        <v>813</v>
+      </c>
+      <c r="AL10" s="68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>372</v>
+      </c>
       <c r="C11" s="68"/>
       <c r="D11" s="36"/>
       <c r="E11" s="37"/>
@@ -6995,11 +7177,17 @@
       <c r="P11" s="48"/>
       <c r="Q11" s="41"/>
       <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
+      <c r="S11" s="69" t="s">
+        <v>377</v>
+      </c>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="68"/>
+      <c r="V11" s="38">
+        <v>1</v>
+      </c>
+      <c r="W11" s="68">
+        <v>1</v>
+      </c>
       <c r="X11" s="68"/>
       <c r="Y11" s="68"/>
       <c r="Z11" s="68"/>
@@ -7012,10 +7200,21 @@
       <c r="AG11" s="36"/>
       <c r="AH11" s="68"/>
       <c r="AI11" s="68"/>
-    </row>
-    <row r="12" spans="1:35">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68">
+        <v>813</v>
+      </c>
+      <c r="AL11" s="68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>373</v>
+      </c>
       <c r="C12" s="68"/>
       <c r="D12" s="36"/>
       <c r="E12" s="37"/>
@@ -7032,11 +7231,21 @@
       <c r="P12" s="48"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="68"/>
+      <c r="S12" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="T12" s="38">
+        <v>727</v>
+      </c>
+      <c r="U12" s="68">
+        <v>1000</v>
+      </c>
+      <c r="V12" s="38">
+        <v>1</v>
+      </c>
+      <c r="W12" s="68">
+        <v>1</v>
+      </c>
       <c r="X12" s="68"/>
       <c r="Y12" s="68"/>
       <c r="Z12" s="68"/>
@@ -7049,14 +7258,23 @@
       <c r="AG12" s="68"/>
       <c r="AH12" s="68"/>
       <c r="AI12" s="68"/>
-    </row>
-    <row r="13" spans="1:35">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>374</v>
+      </c>
       <c r="C13" s="68"/>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="F13" s="37">
+        <v>19</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
@@ -7086,10 +7304,17 @@
       <c r="AG13" s="68"/>
       <c r="AH13" s="68"/>
       <c r="AI13" s="68"/>
-    </row>
-    <row r="14" spans="1:35">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>358</v>
+      </c>
       <c r="C14" s="68"/>
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
@@ -7106,8 +7331,12 @@
       <c r="P14" s="48"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
+      <c r="S14" s="69" t="s">
+        <v>377</v>
+      </c>
+      <c r="T14" s="68">
+        <v>727</v>
+      </c>
       <c r="U14" s="68"/>
       <c r="V14" s="38"/>
       <c r="W14" s="68"/>
@@ -7123,10 +7352,15 @@
       <c r="AG14" s="36"/>
       <c r="AH14" s="68"/>
       <c r="AI14" s="68"/>
-    </row>
-    <row r="15" spans="1:35">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="AJ14" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK14" s="68">
+        <v>813</v>
+      </c>
+      <c r="AL14" s="68"/>
+    </row>
+    <row r="15" spans="1:38">
       <c r="C15" s="68"/>
       <c r="D15" s="36"/>
       <c r="E15" s="37"/>
@@ -7160,10 +7394,11 @@
       <c r="AG15" s="36"/>
       <c r="AH15" s="68"/>
       <c r="AI15" s="68"/>
-    </row>
-    <row r="16" spans="1:35">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+    </row>
+    <row r="16" spans="1:38">
       <c r="C16" s="68"/>
       <c r="D16" s="36"/>
       <c r="E16" s="37"/>
@@ -7197,8 +7432,11 @@
       <c r="AG16" s="68"/>
       <c r="AH16" s="68"/>
       <c r="AI16" s="68"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="68"/>
+    </row>
+    <row r="17" spans="1:38">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="68"/>
@@ -7234,8 +7472,11 @@
       <c r="AG17" s="68"/>
       <c r="AH17" s="68"/>
       <c r="AI17" s="68"/>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="68"/>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="68"/>
@@ -7271,8 +7512,11 @@
       <c r="AG18" s="68"/>
       <c r="AH18" s="68"/>
       <c r="AI18" s="68"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" s="45"/>
       <c r="B19" s="45"/>
       <c r="C19" s="68"/>
@@ -7308,8 +7552,11 @@
       <c r="AG19" s="68"/>
       <c r="AH19" s="68"/>
       <c r="AI19" s="68"/>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" s="45"/>
       <c r="B20" s="45"/>
       <c r="C20" s="68"/>
@@ -7345,8 +7592,11 @@
       <c r="AG20" s="68"/>
       <c r="AH20" s="68"/>
       <c r="AI20" s="68"/>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+    </row>
+    <row r="21" spans="1:38">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="68"/>
@@ -7382,8 +7632,11 @@
       <c r="AG21" s="68"/>
       <c r="AH21" s="68"/>
       <c r="AI21" s="68"/>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+    </row>
+    <row r="22" spans="1:38">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="68"/>
@@ -7419,27 +7672,31 @@
       <c r="AG22" s="68"/>
       <c r="AH22" s="68"/>
       <c r="AI22" s="68"/>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AJ22" s="68"/>
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="68"/>
+    </row>
+    <row r="23" spans="1:38">
       <c r="AF23" s="76"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:38">
       <c r="AF24" s="76"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:38">
       <c r="AF25" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q300"/>
+  <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7492,25 +7749,29 @@
         <v>126</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>289</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>290</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>211</v>
       </c>
       <c r="M1" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="N1" s="50" t="s">
         <v>297</v>
-      </c>
-      <c r="N1" s="50" t="s">
-        <v>298</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="P1" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="45" t="s">
@@ -7582,25 +7843,25 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>286</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>287</v>
       </c>
       <c r="C4" s="41">
         <v>564</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>129</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H4" s="41">
         <v>840</v>
@@ -7610,7 +7871,7 @@
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="48"/>
@@ -7621,25 +7882,25 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="41">
         <v>564</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H5" s="41">
         <v>840</v>
@@ -7649,7 +7910,7 @@
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L5" s="41"/>
       <c r="M5" s="52"/>
@@ -7660,25 +7921,25 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>295</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>296</v>
       </c>
       <c r="C6" s="41">
         <v>564</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H6" s="41">
         <v>840</v>
@@ -7688,14 +7949,14 @@
       </c>
       <c r="J6" s="41"/>
       <c r="K6" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="N6" s="48" t="s">
         <v>299</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>300</v>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
@@ -7703,117 +7964,295 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+        <v>351</v>
+      </c>
+      <c r="C7" s="41">
+        <v>564</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" s="41">
+        <v>840</v>
+      </c>
+      <c r="I7" s="41">
+        <v>4000</v>
+      </c>
       <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
+      <c r="K7" s="38" t="s">
+        <v>290</v>
+      </c>
       <c r="L7" s="41"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+      <c r="M7" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>299</v>
+      </c>
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+        <v>352</v>
+      </c>
+      <c r="C8" s="41">
+        <v>564</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="41">
+        <v>840</v>
+      </c>
+      <c r="I8" s="41">
+        <v>4000</v>
+      </c>
       <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="38" t="s">
+        <v>290</v>
+      </c>
       <c r="L8" s="41"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
+      <c r="M8" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>299</v>
+      </c>
       <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="P8" s="38" t="s">
+        <v>363</v>
+      </c>
       <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+        <v>353</v>
+      </c>
+      <c r="C9" s="41">
+        <v>564</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="H9" s="41">
+        <v>840</v>
+      </c>
+      <c r="I9" s="41">
+        <v>4000</v>
+      </c>
       <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="38" t="s">
+        <v>290</v>
+      </c>
       <c r="L9" s="41"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
+      <c r="M9" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>299</v>
+      </c>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="46" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="D10" s="47"/>
+        <v>348</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68">
+        <v>727</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="46" t="s">
         <v>344</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="D11" s="47"/>
+        <v>349</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68">
+        <v>727</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="46" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="47"/>
+        <v>350</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68">
+        <v>727</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="46" t="s">
-        <v>345</v>
+      <c r="A13" s="45" t="s">
+        <v>342</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="D13" s="47"/>
+        <v>346</v>
+      </c>
+      <c r="C13" s="41">
+        <v>564</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="H13" s="41">
+        <v>840</v>
+      </c>
+      <c r="I13" s="41">
+        <v>4000</v>
+      </c>
+      <c r="J13" s="41"/>
+      <c r="K13" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="41"/>
+      <c r="M13" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="46" t="s">
-        <v>346</v>
+      <c r="A14" s="45" t="s">
+        <v>343</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="47"/>
+        <v>347</v>
+      </c>
+      <c r="C14" s="41">
+        <v>564</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="41">
+        <v>840</v>
+      </c>
+      <c r="I14" s="41">
+        <v>4000</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="41"/>
+      <c r="M14" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="N14" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
     </row>
     <row r="15" spans="1:17">
       <c r="D15" s="47"/>
@@ -8666,12 +9105,6 @@
     </row>
     <row r="298" spans="4:4">
       <c r="D298" s="47"/>
-    </row>
-    <row r="299" spans="4:4">
-      <c r="D299" s="47"/>
-    </row>
-    <row r="300" spans="4:4">
-      <c r="D300" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8684,7 +9117,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9645,7 +10078,7 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
-      <c r="F3" s="108"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="70"/>
       <c r="H3" s="70"/>
       <c r="I3" s="37"/>
@@ -10753,14 +11186,14 @@
       <c r="AD1" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="107" t="s">
-        <v>279</v>
-      </c>
-      <c r="AF1" s="106" t="s">
+      <c r="AE1" s="104" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF1" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG1" s="103" t="s">
         <v>281</v>
-      </c>
-      <c r="AG1" s="106" t="s">
-        <v>282</v>
       </c>
       <c r="AH1" s="40" t="s">
         <v>120</v>
@@ -10777,11 +11210,11 @@
       <c r="AL1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="AM1" s="110" t="s">
+      <c r="AM1" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="AN1" s="109" t="s">
-        <v>284</v>
+      <c r="AN1" s="106" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -10999,7 +11432,7 @@
         <v>1587</v>
       </c>
       <c r="AB4" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC4" s="48" t="s">
         <v>129</v>
@@ -11020,10 +11453,10 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="37">
         <v>369</v>
@@ -11081,7 +11514,7 @@
       </c>
       <c r="AA5" s="41"/>
       <c r="AB5" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC5" s="48" t="s">
         <v>129</v>
@@ -11102,10 +11535,10 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="37">
         <v>369</v>
@@ -11157,7 +11590,7 @@
       </c>
       <c r="AA6" s="41"/>
       <c r="AB6" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC6" s="48" t="s">
         <v>129</v>
@@ -11182,10 +11615,10 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="36" t="s">
@@ -11232,16 +11665,16 @@
         <v>129</v>
       </c>
       <c r="AK7" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL7" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM7" s="41">
         <v>840</v>
       </c>
       <c r="AN7" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -11492,16 +11925,16 @@
         <v>213</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>301</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>302</v>
       </c>
       <c r="C2" s="38">
         <v>369</v>
@@ -11541,7 +11974,7 @@
         <v>77</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q2" s="36"/>
     </row>
